--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H2">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I2">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J2">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>73.63557435207213</v>
+        <v>67.67958142805344</v>
       </c>
       <c r="R2">
-        <v>662.720169168649</v>
+        <v>609.1162328524809</v>
       </c>
       <c r="S2">
-        <v>0.1611053181164631</v>
+        <v>0.1171524551523771</v>
       </c>
       <c r="T2">
-        <v>0.1611053181164631</v>
+        <v>0.117152455152377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H3">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I3">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J3">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
-        <v>41.18524341926189</v>
+        <v>39.92556057984345</v>
       </c>
       <c r="R3">
-        <v>370.667190773357</v>
+        <v>359.330045218591</v>
       </c>
       <c r="S3">
-        <v>0.09010810061777483</v>
+        <v>0.06911061425868738</v>
       </c>
       <c r="T3">
-        <v>0.09010810061777483</v>
+        <v>0.06911061425868736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H4">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I4">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J4">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.717279333333334</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N4">
-        <v>23.151838</v>
+        <v>0.426419</v>
       </c>
       <c r="O4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q4">
-        <v>18.10501256562956</v>
+        <v>0.3232654484865556</v>
       </c>
       <c r="R4">
-        <v>162.945113090666</v>
+        <v>2.909389036379</v>
       </c>
       <c r="S4">
-        <v>0.03961147630820688</v>
+        <v>0.0005595681911300422</v>
       </c>
       <c r="T4">
-        <v>0.03961147630820688</v>
+        <v>0.0005595681911300421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.935458666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H5">
-        <v>8.806376</v>
+        <v>6.822841</v>
       </c>
       <c r="I5">
-        <v>0.3638923613841484</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J5">
-        <v>0.3638923613841485</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.38723566666667</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N5">
-        <v>94.16170700000001</v>
+        <v>37.286186</v>
       </c>
       <c r="O5">
-        <v>0.5539598599114094</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P5">
-        <v>0.5539598599114095</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q5">
-        <v>92.13593296042579</v>
+        <v>28.26641317493622</v>
       </c>
       <c r="R5">
-        <v>829.2233966438321</v>
+        <v>254.397718574426</v>
       </c>
       <c r="S5">
-        <v>0.2015817615351948</v>
+        <v>0.04892878519521481</v>
       </c>
       <c r="T5">
-        <v>0.2015817615351949</v>
+        <v>0.0489287851952148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.935458666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H6">
-        <v>8.806376</v>
+        <v>6.822841</v>
       </c>
       <c r="I6">
-        <v>0.3638923613841484</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J6">
-        <v>0.3638923613841485</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.55525033333333</v>
+        <v>0.251329</v>
       </c>
       <c r="N6">
-        <v>52.665751</v>
+        <v>0.753987</v>
       </c>
       <c r="O6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q6">
-        <v>51.53271173648623</v>
+        <v>0.5715926018963333</v>
       </c>
       <c r="R6">
-        <v>463.794405628376</v>
+        <v>5.144333417067</v>
       </c>
       <c r="S6">
-        <v>0.1127470518260034</v>
+        <v>0.0009894191903399407</v>
       </c>
       <c r="T6">
-        <v>0.1127470518260034</v>
+        <v>0.0009894191903399403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>8.806376</v>
       </c>
       <c r="I7">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J7">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.717279333333334</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N7">
-        <v>23.151838</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q7">
-        <v>22.65375450212089</v>
+        <v>87.35537609304622</v>
       </c>
       <c r="R7">
-        <v>203.883790519088</v>
+        <v>786.1983848374159</v>
       </c>
       <c r="S7">
-        <v>0.04956354802295016</v>
+        <v>0.1512109939825609</v>
       </c>
       <c r="T7">
-        <v>0.04956354802295017</v>
+        <v>0.1512109939825609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2753</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H8">
-        <v>3.8259</v>
+        <v>8.806376</v>
       </c>
       <c r="I8">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J8">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.38723566666667</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N8">
-        <v>94.16170700000001</v>
+        <v>52.665751</v>
       </c>
       <c r="O8">
-        <v>0.5539598599114094</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P8">
-        <v>0.5539598599114095</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q8">
-        <v>40.0281416457</v>
+        <v>51.53271173648623</v>
       </c>
       <c r="R8">
-        <v>360.2532748113</v>
+        <v>463.794405628376</v>
       </c>
       <c r="S8">
-        <v>0.08757650836819841</v>
+        <v>0.08920243850808809</v>
       </c>
       <c r="T8">
-        <v>0.08757650836819846</v>
+        <v>0.08920243850808807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2753</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H9">
-        <v>3.8259</v>
+        <v>8.806376</v>
       </c>
       <c r="I9">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J9">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.55525033333333</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N9">
-        <v>52.665751</v>
+        <v>0.426419</v>
       </c>
       <c r="O9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q9">
-        <v>22.3882107501</v>
+        <v>0.4172451163937778</v>
       </c>
       <c r="R9">
-        <v>201.4938967509</v>
+        <v>3.755206047544</v>
       </c>
       <c r="S9">
-        <v>0.04898257189803233</v>
+        <v>0.0007222457461240877</v>
       </c>
       <c r="T9">
-        <v>0.04898257189803234</v>
+        <v>0.0007222457461240875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2753</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H10">
-        <v>3.8259</v>
+        <v>8.806376</v>
       </c>
       <c r="I10">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J10">
-        <v>0.1580917945610786</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.717279333333334</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N10">
-        <v>23.151838</v>
+        <v>37.286186</v>
       </c>
       <c r="O10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q10">
-        <v>9.8418463338</v>
+        <v>36.48401928021512</v>
       </c>
       <c r="R10">
-        <v>88.5766170042</v>
+        <v>328.356173521936</v>
       </c>
       <c r="S10">
-        <v>0.02153271429484785</v>
+        <v>0.0631533520497246</v>
       </c>
       <c r="T10">
-        <v>0.02153271429484785</v>
+        <v>0.06315335204972458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6704439999999999</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H11">
-        <v>2.011332</v>
+        <v>8.806376</v>
       </c>
       <c r="I11">
-        <v>0.08311118569176491</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J11">
-        <v>0.08311118569176493</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.38723566666667</v>
+        <v>0.251329</v>
       </c>
       <c r="N11">
-        <v>94.16170700000001</v>
+        <v>0.753987</v>
       </c>
       <c r="O11">
-        <v>0.5539598599114094</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P11">
-        <v>0.5539598599114095</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q11">
-        <v>21.04338382930267</v>
+        <v>0.7377658912346666</v>
       </c>
       <c r="R11">
-        <v>189.390454463724</v>
+        <v>6.639893021112</v>
       </c>
       <c r="S11">
-        <v>0.04604026078288122</v>
+        <v>0.001277062943684176</v>
       </c>
       <c r="T11">
-        <v>0.04604026078288124</v>
+        <v>0.001277062943684175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6704439999999999</v>
+        <v>2.075403</v>
       </c>
       <c r="H12">
-        <v>2.011332</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I12">
-        <v>0.08311118569176491</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J12">
-        <v>0.08311118569176493</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.55525033333333</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N12">
-        <v>52.665751</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O12">
-        <v>0.3098362697066353</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P12">
-        <v>0.3098362697066353</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q12">
-        <v>11.76981225448133</v>
+        <v>61.761254439841</v>
       </c>
       <c r="R12">
-        <v>105.928310290332</v>
+        <v>555.8512899585691</v>
       </c>
       <c r="S12">
-        <v>0.02575085974563192</v>
+        <v>0.1069079098636223</v>
       </c>
       <c r="T12">
-        <v>0.02575085974563193</v>
+        <v>0.1069079098636223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6704439999999999</v>
+        <v>2.075403</v>
       </c>
       <c r="H13">
-        <v>2.011332</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I13">
-        <v>0.08311118569176491</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J13">
-        <v>0.08311118569176493</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.717279333333334</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N13">
-        <v>23.151838</v>
+        <v>52.665751</v>
       </c>
       <c r="O13">
-        <v>0.1362038703819552</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P13">
-        <v>0.1362038703819552</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q13">
-        <v>5.174003625357333</v>
+        <v>36.434219207551</v>
       </c>
       <c r="R13">
-        <v>46.566032628216</v>
+        <v>327.907972867959</v>
       </c>
       <c r="S13">
-        <v>0.01132006516325176</v>
+        <v>0.06306714878640257</v>
       </c>
       <c r="T13">
-        <v>0.01132006516325176</v>
+        <v>0.06306714878640256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.839594</v>
+        <v>2.075403</v>
       </c>
       <c r="H14">
-        <v>2.518782</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I14">
-        <v>0.1040797633205632</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J14">
-        <v>0.1040797633205632</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>31.38723566666667</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N14">
-        <v>94.16170700000001</v>
+        <v>0.426419</v>
       </c>
       <c r="O14">
-        <v>0.5539598599114094</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P14">
-        <v>0.5539598599114095</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q14">
-        <v>26.35253474231934</v>
+        <v>0.294997090619</v>
       </c>
       <c r="R14">
-        <v>237.172812680874</v>
+        <v>2.654973815571</v>
       </c>
       <c r="S14">
-        <v>0.05765601110867183</v>
+        <v>0.0005106360396977724</v>
       </c>
       <c r="T14">
-        <v>0.05765601110867185</v>
+        <v>0.0005106360396977723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.839594</v>
+        <v>2.075403</v>
       </c>
       <c r="H15">
-        <v>2.518782</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I15">
-        <v>0.1040797633205632</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J15">
-        <v>0.1040797633205632</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.55525033333333</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N15">
-        <v>52.665751</v>
+        <v>37.286186</v>
       </c>
       <c r="O15">
-        <v>0.3098362697066353</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P15">
-        <v>0.3098362697066353</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q15">
-        <v>14.73928284836467</v>
+        <v>25.794620760986</v>
       </c>
       <c r="R15">
-        <v>132.653545635282</v>
+        <v>232.151586848874</v>
       </c>
       <c r="S15">
-        <v>0.03224768561919279</v>
+        <v>0.04465014540739162</v>
       </c>
       <c r="T15">
-        <v>0.03224768561919279</v>
+        <v>0.04465014540739161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.075403</v>
+      </c>
+      <c r="H16">
+        <v>6.226209000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2160387382692492</v>
+      </c>
+      <c r="J16">
+        <v>0.2160387382692492</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.251329</v>
+      </c>
+      <c r="N16">
+        <v>0.753987</v>
+      </c>
+      <c r="O16">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P16">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q16">
+        <v>0.521608960587</v>
+      </c>
+      <c r="R16">
+        <v>4.694480645283</v>
+      </c>
+      <c r="S16">
+        <v>0.000902898172134929</v>
+      </c>
+      <c r="T16">
+        <v>0.0009028981721349288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.839594</v>
-      </c>
-      <c r="H16">
-        <v>2.518782</v>
-      </c>
-      <c r="I16">
-        <v>0.1040797633205632</v>
-      </c>
-      <c r="J16">
-        <v>0.1040797633205632</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.717279333333334</v>
-      </c>
-      <c r="N16">
-        <v>23.151838</v>
-      </c>
-      <c r="O16">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="P16">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="Q16">
-        <v>6.479381424590667</v>
-      </c>
-      <c r="R16">
-        <v>58.314432821316</v>
-      </c>
-      <c r="S16">
-        <v>0.01417606659269857</v>
-      </c>
-      <c r="T16">
-        <v>0.01417606659269857</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9024383333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.707315</v>
+      </c>
+      <c r="I17">
+        <v>0.09393917176526073</v>
+      </c>
+      <c r="J17">
+        <v>0.09393917176526072</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N17">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P17">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q17">
+        <v>26.85537388221277</v>
+      </c>
+      <c r="R17">
+        <v>241.698364939915</v>
+      </c>
+      <c r="S17">
+        <v>0.04648629494969291</v>
+      </c>
+      <c r="T17">
+        <v>0.0464862949496929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9024383333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.707315</v>
+      </c>
+      <c r="I18">
+        <v>0.09393917176526073</v>
+      </c>
+      <c r="J18">
+        <v>0.09393917176526072</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N18">
+        <v>52.665751</v>
+      </c>
+      <c r="O18">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P18">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q18">
+        <v>15.84253085206278</v>
+      </c>
+      <c r="R18">
+        <v>142.582777668565</v>
+      </c>
+      <c r="S18">
+        <v>0.02742321016153802</v>
+      </c>
+      <c r="T18">
+        <v>0.02742321016153801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9024383333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.707315</v>
+      </c>
+      <c r="I19">
+        <v>0.09393917176526073</v>
+      </c>
+      <c r="J19">
+        <v>0.09393917176526072</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.426419</v>
+      </c>
+      <c r="O19">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P19">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q19">
+        <v>0.1282722838872222</v>
+      </c>
+      <c r="R19">
+        <v>1.154450554985</v>
+      </c>
+      <c r="S19">
+        <v>0.0002220376170819795</v>
+      </c>
+      <c r="T19">
+        <v>0.0002220376170819794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9024383333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.707315</v>
+      </c>
+      <c r="I20">
+        <v>0.09393917176526073</v>
+      </c>
+      <c r="J20">
+        <v>0.09393917176526072</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N20">
+        <v>37.286186</v>
+      </c>
+      <c r="O20">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P20">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q20">
+        <v>11.21616118339889</v>
+      </c>
+      <c r="R20">
+        <v>100.94545065059</v>
+      </c>
+      <c r="S20">
+        <v>0.01941502580681317</v>
+      </c>
+      <c r="T20">
+        <v>0.01941502580681316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9024383333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.707315</v>
+      </c>
+      <c r="I21">
+        <v>0.09393917176526073</v>
+      </c>
+      <c r="J21">
+        <v>0.09393917176526072</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.251329</v>
+      </c>
+      <c r="N21">
+        <v>0.753987</v>
+      </c>
+      <c r="O21">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P21">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q21">
+        <v>0.2268089238783333</v>
+      </c>
+      <c r="R21">
+        <v>2.041280314905</v>
+      </c>
+      <c r="S21">
+        <v>0.0003926032301346574</v>
+      </c>
+      <c r="T21">
+        <v>0.0003926032301346573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.419044</v>
+      </c>
+      <c r="H22">
+        <v>4.257132</v>
+      </c>
+      <c r="I22">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="J22">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N22">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O22">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P22">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q22">
+        <v>42.22887677493467</v>
+      </c>
+      <c r="R22">
+        <v>380.059890974412</v>
+      </c>
+      <c r="S22">
+        <v>0.07309762395280051</v>
+      </c>
+      <c r="T22">
+        <v>0.07309762395280048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.419044</v>
+      </c>
+      <c r="H23">
+        <v>4.257132</v>
+      </c>
+      <c r="I23">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="J23">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N23">
+        <v>52.665751</v>
+      </c>
+      <c r="O23">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P23">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q23">
+        <v>24.91167265401467</v>
+      </c>
+      <c r="R23">
+        <v>224.205053886132</v>
+      </c>
+      <c r="S23">
+        <v>0.04312177397953643</v>
+      </c>
+      <c r="T23">
+        <v>0.04312177397953642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.419044</v>
+      </c>
+      <c r="H24">
+        <v>4.257132</v>
+      </c>
+      <c r="I24">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="J24">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.426419</v>
+      </c>
+      <c r="O24">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P24">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q24">
+        <v>0.2017024411453334</v>
+      </c>
+      <c r="R24">
+        <v>1.815321970308</v>
+      </c>
+      <c r="S24">
+        <v>0.0003491442424998353</v>
+      </c>
+      <c r="T24">
+        <v>0.0003491442424998352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.419044</v>
+      </c>
+      <c r="H25">
+        <v>4.257132</v>
+      </c>
+      <c r="I25">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="J25">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N25">
+        <v>37.286186</v>
+      </c>
+      <c r="O25">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P25">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q25">
+        <v>17.63691284206134</v>
+      </c>
+      <c r="R25">
+        <v>158.732215578552</v>
+      </c>
+      <c r="S25">
+        <v>0.03052926151667249</v>
+      </c>
+      <c r="T25">
+        <v>0.03052926151667248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.419044</v>
+      </c>
+      <c r="H26">
+        <v>4.257132</v>
+      </c>
+      <c r="I26">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="J26">
+        <v>0.1477151547475591</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.251329</v>
+      </c>
+      <c r="N26">
+        <v>0.753987</v>
+      </c>
+      <c r="O26">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P26">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q26">
+        <v>0.356646909476</v>
+      </c>
+      <c r="R26">
+        <v>3.209822185284</v>
+      </c>
+      <c r="S26">
+        <v>0.0006173510560498555</v>
+      </c>
+      <c r="T26">
+        <v>0.0006173510560498552</v>
       </c>
     </row>
   </sheetData>
